--- a/Телеграм-бот QAP Converter Bot.xlsx
+++ b/Телеграм-бот QAP Converter Bot.xlsx
@@ -291,7 +291,7 @@
     <t>В файле, содержащем коды доступных валют (config.py), допущена ошибка в буквенном коде валюты (USD)</t>
   </si>
   <si>
-    <t>Баг-репорт телеграм-бот ""</t>
+    <t>Баг-репорт телеграм-бот "QAP Converter Bot"</t>
   </si>
 </sst>
 </file>
@@ -404,6 +404,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -422,7 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -823,9 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -883,13 +881,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -903,9 +901,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
@@ -917,9 +915,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
@@ -931,9 +929,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6" t="s">
         <v>57</v>
       </c>
@@ -945,10 +943,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -965,8 +963,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="4" t="s">
         <v>17</v>
@@ -979,8 +977,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="18"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
@@ -993,10 +991,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -1013,8 +1011,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="18"/>
       <c r="D13" s="4" t="s">
         <v>20</v>
@@ -1027,8 +1025,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="18"/>
       <c r="D14" s="4" t="s">
         <v>21</v>
@@ -1041,10 +1039,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -1061,8 +1059,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="18"/>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -1075,8 +1073,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="18"/>
       <c r="D17" s="4" t="s">
         <v>24</v>
@@ -1089,10 +1087,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -1109,8 +1107,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="18"/>
       <c r="D19" s="4" t="s">
         <v>26</v>
@@ -1123,8 +1121,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="4" t="s">
         <v>27</v>
@@ -1157,10 +1155,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -1177,8 +1175,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="18"/>
       <c r="D23" s="4" t="s">
         <v>32</v>
@@ -1191,8 +1189,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="18"/>
       <c r="D24" s="4" t="s">
         <v>33</v>
@@ -1205,8 +1203,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="18"/>
       <c r="D25" s="4" t="s">
         <v>35</v>
@@ -1219,10 +1217,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -1239,8 +1237,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="18"/>
       <c r="D27" s="4" t="s">
         <v>29</v>
@@ -1253,8 +1251,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="18"/>
       <c r="D28" s="4" t="s">
         <v>30</v>
@@ -1280,11 +1278,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B28"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A26:A28"/>
@@ -1301,6 +1294,11 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
